--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd84-Cd84.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd84-Cd84.xlsx
@@ -525,10 +525,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.112135</v>
+        <v>0.05944733333333333</v>
       </c>
       <c r="H2">
-        <v>108.336405</v>
+        <v>0.178342</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -543,10 +543,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.112135</v>
+        <v>0.05944733333333333</v>
       </c>
       <c r="N2">
-        <v>108.336405</v>
+        <v>0.178342</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1304.086294258225</v>
+        <v>0.003533985440444444</v>
       </c>
       <c r="R2">
-        <v>11736.77664832403</v>
+        <v>0.031805868964</v>
       </c>
       <c r="S2">
         <v>1</v>
